--- a/auto/new_data/7_上海航運交易所_海上絲綢之路運價指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_海上絲綢之路運價指數.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,482 +434,459 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>指數名稱</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>指數</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>指數_time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>综合指数</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>162.19</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>-3.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>“海上丝绸之路”进口集装箱运价指数</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>84.93</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>东南亚航线</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>东南亚航线:進口</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>73.66</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>波红航线</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>波红航线:進口</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>62.13</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>澳新航线</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>澳新航线:進口</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>95.01</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-2.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>地中海航线</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>地中海航线:進口</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>101.77</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>欧洲航线</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>欧洲航线:進口</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>64.15</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>“海上丝绸之路”出口集装箱运价指数</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>194.47</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-12.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>东南亚航线</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>东南亚航线:出口</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>131.70</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-13.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>波红航线</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>波红航线:出口</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>158.87</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-14.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>澳新航线</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>澳新航线:出口</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>179.46</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>24.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>地中海航线</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>地中海航线:出口</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>222.25</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-10.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>欧洲航线</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>欧洲航线:出口</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>237.62</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-14.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>“海上丝绸之路”进口干散货运价指数</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>211.22</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>西澳大利亚丹皮尔—中国青岛（铁矿石,170000MT）</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>252.47</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>澳大利亚纽卡斯尔—中国舟山（煤炭,130000MT）</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>248.39</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>澳大利亚海波因特—中国舟山（煤炭,85000MT）</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>137.48</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>印尼萨马林达—中国广州（煤炭，70000MT）</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>159.90</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-1.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>印尼塔巴尼奥—中国广州（煤炭,50000MT）</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>157.16</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>菲律宾苏里高—中国日照（镍矿,50000MT）</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>146.95</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>“海上丝绸之路”进口原油运价指数</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>69.55</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>中东湾拉斯坦努拉—中国宁波（原油,265000MT）</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>69.55</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.9</t>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_海上絲綢之路運價指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_海上絲綢之路運價指數.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>162.19</t>
+          <t>135.88</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>84.93</t>
+          <t>84.25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>73.66</t>
+          <t>72.08</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>62.13</t>
+          <t>69.92</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>104.81</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>101.77</t>
+          <t>95.83</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>64.15</t>
+          <t>60.86</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>194.47</t>
+          <t>143.16</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>131.70</t>
+          <t>112.08</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>158.87</t>
+          <t>107.04</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>179.46</t>
+          <t>185.52</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>222.25</t>
+          <t>164.81</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>237.62</t>
+          <t>161.95</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>211.22</t>
+          <t>188.91</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>252.47</t>
+          <t>211.38</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>248.39</t>
+          <t>224.32</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>137.48</t>
+          <t>138.09</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>159.90</t>
+          <t>160.03</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>157.16</t>
+          <t>159.76</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>146.95</t>
+          <t>149.99</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>69.55</t>
+          <t>76.87</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>69.55</t>
+          <t>76.87</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_海上絲綢之路運價指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_海上絲綢之路運價指數.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135.88</t>
+          <t>133.12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>81.45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>72.08</t>
+          <t>69.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>65.28</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>104.81</t>
+          <t>108.33</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>95.83</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>60.86</t>
+          <t>58.11</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>143.16</t>
+          <t>140.59</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>112.08</t>
+          <t>125.14</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>107.04</t>
+          <t>123.93</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>185.52</t>
+          <t>188.42</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>164.81</t>
+          <t>151.45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>161.95</t>
+          <t>145.58</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>188.91</t>
+          <t>186.58</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>211.38</t>
+          <t>214.66</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>224.32</t>
+          <t>218.03</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>138.09</t>
+          <t>132.52</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>160.03</t>
+          <t>152.21</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>159.76</t>
+          <t>148.46</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>149.99</t>
+          <t>141.28</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>76.87</t>
+          <t>71.37</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>76.87</t>
+          <t>71.37</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_海上絲綢之路運價指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_海上絲綢之路運價指數.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>133.12</t>
+          <t>128.15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>81.45</t>
+          <t>77.38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>67.57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>65.28</t>
+          <t>60.41</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>108.33</t>
+          <t>109.45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>81.57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>58.11</t>
+          <t>55.16</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>140.59</t>
+          <t>158.39</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>125.14</t>
+          <t>151.60</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>123.93</t>
+          <t>134.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>188.42</t>
+          <t>178.82</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>151.45</t>
+          <t>177.46</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>145.58</t>
+          <t>161.03</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>186.58</t>
+          <t>153.64</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>214.66</t>
+          <t>164.52</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>218.03</t>
+          <t>186.04</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>132.52</t>
+          <t>122.17</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>152.21</t>
+          <t>138.05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>148.46</t>
+          <t>135.62</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>141.28</t>
+          <t>131.91</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>71.37</t>
+          <t>57.67</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>71.37</t>
+          <t>57.67</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
